--- a/Datasheet/Relevé de mesures.xlsx
+++ b/Datasheet/Relevé de mesures.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BE85B-1F44-4CBC-BA1B-BDFEB7C9B529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69A63C6-BE47-4492-B9B9-13F63C98C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{469ED7B0-B856-214C-BF6A-9CF3B438AC5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{469ED7B0-B856-214C-BF6A-9CF3B438AC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="HB" sheetId="1" r:id="rId1"/>
     <sheet name="2H" sheetId="3" r:id="rId2"/>
     <sheet name="2B" sheetId="4" r:id="rId3"/>
-    <sheet name="Résistance relative" sheetId="2" r:id="rId4"/>
+    <sheet name="Flex sensor" sheetId="6" r:id="rId4"/>
+    <sheet name="Résistance relative" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
   <si>
     <t xml:space="preserve">En compression </t>
   </si>
@@ -48,21 +49,6 @@
   </si>
   <si>
     <t>Banc de test</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
   </si>
   <si>
     <t>déformation</t>
@@ -90,9 +76,6 @@
   </si>
   <si>
     <t>e (mm)</t>
-  </si>
-  <si>
-    <t>R1 (mm)</t>
   </si>
   <si>
     <t>HB</t>
@@ -131,6 +114,39 @@
   </si>
   <si>
     <t>2B</t>
+  </si>
+  <si>
+    <t>Flex sensor</t>
+  </si>
+  <si>
+    <t>R0 (Mohm)</t>
+  </si>
+  <si>
+    <t>R (Ohms)</t>
+  </si>
+  <si>
+    <t>e/2r</t>
+  </si>
+  <si>
+    <t>r1 (mm)</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>Diamètre banc de test (mm)</t>
   </si>
 </sst>
 </file>
@@ -278,16 +294,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2218,6 +2234,553 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Variation de la résistance relative  en fonction de la compression appliquée pour le flex sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flex sensor'!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flex sensor'!$D$13:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-9.2000960845544064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.121787172711986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20.730242613499879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27.936584194090802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42.349267355272637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-51.957722796060537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1906-4E46-8A69-42435BF50602}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316390671"/>
+        <c:axId val="225259999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316390671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Déformation ɛ</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225259999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225259999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ΔR/R0 (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316390671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -2635,6 +3198,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F677-4A1D-90EE-BA597B12B3F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Flex sensor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Flex sensor'!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Flex sensor'!$D$13:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-9.2000960845544064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.121787172711986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20.730242613499879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27.936584194090802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42.349267355272637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-51.957722796060537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9BB4-4456-907F-07539347D78D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2993,7 +3671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3881,10 +4559,13 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3954,6 +4635,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6019,6 +6737,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6664,6 +7898,47 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1064355</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>235436</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8EFBF7-B73C-494D-442A-D26F4EA4174B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7043,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B21908-19B3-0144-9C72-41ECC02955DF}">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7065,26 +8340,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="3" t="s">
@@ -7111,7 +8386,7 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1">
         <f>0.3</f>
@@ -7140,10 +8415,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4"/>
       <c r="O3" s="4"/>
@@ -7168,10 +8443,10 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4"/>
       <c r="Q4" s="4"/>
@@ -7230,7 +8505,7 @@
       <c r="E7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1">
         <v>100</v>
@@ -7242,21 +8517,21 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1">
         <v>80</v>
@@ -7267,7 +8542,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1">
-        <f>$K$2/(2*K7)</f>
+        <f t="shared" ref="C9:C14" si="0">$K$2/(2*K7)</f>
         <v>1.5E-3</v>
       </c>
       <c r="D9" s="1">
@@ -7282,7 +8557,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K9" s="1">
         <v>60</v>
@@ -7292,7 +8567,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1">
-        <f>$K$2/(2*K8)</f>
+        <f t="shared" si="0"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="D10" s="1">
@@ -7306,7 +8581,7 @@
         <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1">
         <v>40</v>
@@ -7317,7 +8592,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1">
-        <f>$K$2/(2*K9)</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11" s="1">
@@ -7331,7 +8606,7 @@
         <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1">
         <v>20</v>
@@ -7342,7 +8617,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1">
-        <f>$K$2/(2*K10)</f>
+        <f t="shared" si="0"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D12" s="1">
@@ -7356,7 +8631,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -7372,7 +8647,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1">
-        <f>$K$2/(2*K11)</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D13" s="1">
@@ -7391,7 +8666,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1">
-        <f>$K$2/(2*K12)</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D14" s="1">
@@ -7419,17 +8694,17 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="Q16" s="4"/>
     </row>
@@ -7440,7 +8715,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="D17" s="1">
-        <f>-(($D$2-D9)/$D$2)*100</f>
+        <f t="shared" ref="D17:D22" si="1">-(($D$2-D9)/$D$2)*100</f>
         <v>-1.9607843137254901</v>
       </c>
       <c r="E17" s="4"/>
@@ -7448,7 +8723,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="H17" s="1">
-        <f>100*(H9-$H$2)/$H$2</f>
+        <f t="shared" ref="H17:H22" si="2">100*(H9-$H$2)/$H$2</f>
         <v>7.8431372549019605</v>
       </c>
       <c r="I17" s="4"/>
@@ -7461,7 +8736,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="D18" s="1">
-        <f>-(($D$2-D10)/$D$2)*100</f>
+        <f t="shared" si="1"/>
         <v>-5.8823529411764701</v>
       </c>
       <c r="E18" s="4"/>
@@ -7469,7 +8744,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="H18" s="1">
-        <f>100*(H10-$H$2)/$H$2</f>
+        <f t="shared" si="2"/>
         <v>11.764705882352942</v>
       </c>
       <c r="I18" s="4"/>
@@ -7482,7 +8757,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D19" s="1">
-        <f>-(($D$2-D11)/$D$2)*100</f>
+        <f t="shared" si="1"/>
         <v>-31.372549019607842</v>
       </c>
       <c r="E19" s="4"/>
@@ -7490,7 +8765,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H19" s="1">
-        <f>100*(H11-$H$2)/$H$2</f>
+        <f t="shared" si="2"/>
         <v>15.686274509803921</v>
       </c>
       <c r="I19" s="4"/>
@@ -7503,7 +8778,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D20" s="1">
-        <f>-(($D$2-D12)/$D$2)*100</f>
+        <f t="shared" si="1"/>
         <v>-39.215686274509807</v>
       </c>
       <c r="E20" s="4"/>
@@ -7511,7 +8786,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="H20" s="1">
-        <f>100*(H12-$H$2)/$H$2</f>
+        <f t="shared" si="2"/>
         <v>17.647058823529413</v>
       </c>
       <c r="I20" s="4"/>
@@ -7524,14 +8799,14 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D21" s="1">
-        <f>-(($D$2-D13)/$D$2)*100</f>
+        <f t="shared" si="1"/>
         <v>-47.058823529411761</v>
       </c>
       <c r="G21" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H21" s="1">
-        <f>100*(H13-$H$2)/$H$2</f>
+        <f t="shared" si="2"/>
         <v>25.490196078431371</v>
       </c>
       <c r="I21" s="4"/>
@@ -7544,14 +8819,14 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D22" s="1">
-        <f>-(($D$2-D14)/$D$2)*100</f>
+        <f t="shared" si="1"/>
         <v>-50.980392156862742</v>
       </c>
       <c r="G22" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H22" s="1">
-        <f>100*(H14-$H$2)/$H$2</f>
+        <f t="shared" si="2"/>
         <v>35.294117647058826</v>
       </c>
     </row>
@@ -8352,10 +9627,10 @@
       <c r="B105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M105" s="10"/>
+      <c r="M105" s="9"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -8367,7 +9642,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M106" s="1">
         <f>0.0003</f>
@@ -8384,10 +9659,10 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -8400,10 +9675,10 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -8612,7 +9887,7 @@
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="1">
@@ -8679,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEEE16B-6226-48E9-B234-85DE73DC2170}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8696,26 +9971,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8815,18 +10090,18 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -8944,17 +10219,17 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -8964,7 +10239,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="D18" s="1">
-        <f>-100*($D$2-D10)/$D$2</f>
+        <f t="shared" ref="D18:D23" si="0">-100*($D$2-D10)/$D$2</f>
         <v>-9.3333333333333339</v>
       </c>
       <c r="E18" s="4"/>
@@ -8972,7 +10247,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="H18" s="1">
-        <f>100*(H10-$H$2)/$H$2</f>
+        <f t="shared" ref="H18:H23" si="1">100*(H10-$H$2)/$H$2</f>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -8983,7 +10258,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="D19" s="1">
-        <f>-100*($D$2-D11)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="E19" s="4"/>
@@ -8991,7 +10266,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="H19" s="1">
-        <f>100*(H11-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>13.333333333333334</v>
       </c>
     </row>
@@ -9002,7 +10277,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D20" s="1">
-        <f>-100*($D$2-D12)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-26.666666666666668</v>
       </c>
       <c r="E20" s="4"/>
@@ -9010,7 +10285,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H20" s="1">
-        <f>100*(H12-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>18.666666666666668</v>
       </c>
     </row>
@@ -9021,7 +10296,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D21" s="1">
-        <f>-100*($D$2-D13)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
       <c r="E21" s="4"/>
@@ -9029,7 +10304,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="H21" s="1">
-        <f>100*(H13-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>23.333333333333332</v>
       </c>
     </row>
@@ -9040,7 +10315,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D22" s="1">
-        <f>-100*($D$2-D14)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-43.333333333333336</v>
       </c>
       <c r="E22" s="4"/>
@@ -9048,7 +10323,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H22" s="1">
-        <f>100*(H14-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>28.333333333333332</v>
       </c>
     </row>
@@ -9059,7 +10334,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D23" s="1">
-        <f>-100*($D$2-D15)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-53.333333333333336</v>
       </c>
       <c r="E23" s="4"/>
@@ -9067,7 +10342,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H23" s="1">
-        <f>100*(H15-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -9147,10 +10422,10 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="9"/>
+      <c r="G39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
@@ -9207,7 +10482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595893D0-26BF-4DCE-B60A-45A76DAF2691}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -9224,25 +10499,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -9329,16 +10604,16 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -9447,16 +10722,16 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -9466,14 +10741,14 @@
         <v>1.5E-3</v>
       </c>
       <c r="D17" s="1">
-        <f>-100*($D$2-D9)/$D$2</f>
+        <f t="shared" ref="D17:D22" si="0">-100*($D$2-D9)/$D$2</f>
         <v>-9.7560975609756095</v>
       </c>
       <c r="G17" s="1">
         <v>1.5E-3</v>
       </c>
       <c r="H17" s="1">
-        <f>100*(H9-$H$2)/$H$2</f>
+        <f t="shared" ref="H17:H22" si="1">100*(H9-$H$2)/$H$2</f>
         <v>2.4390243902439024</v>
       </c>
     </row>
@@ -9484,7 +10759,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="D18" s="1">
-        <f>-100*($D$2-D10)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-14.634146341463415</v>
       </c>
       <c r="E18" s="4"/>
@@ -9492,7 +10767,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="H18" s="1">
-        <f>100*(H10-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>4.8780487804878048</v>
       </c>
     </row>
@@ -9503,7 +10778,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D19" s="1">
-        <f>-100*($D$2-D11)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-19.512195121951219</v>
       </c>
       <c r="E19" s="4"/>
@@ -9511,7 +10786,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H19" s="1">
-        <f>100*(H11-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>7.3170731707317076</v>
       </c>
     </row>
@@ -9522,7 +10797,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D20" s="1">
-        <f>-100*($D$2-D12)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-24.390243902439025</v>
       </c>
       <c r="E20" s="4"/>
@@ -9530,7 +10805,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="H20" s="1">
-        <f>100*(H12-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>12.195121951219512</v>
       </c>
     </row>
@@ -9541,7 +10816,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D21" s="1">
-        <f>-100*($D$2-D13)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-26.829268292682926</v>
       </c>
       <c r="E21" s="4"/>
@@ -9549,7 +10824,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H21" s="1">
-        <f>100*(H13-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>17.073170731707318</v>
       </c>
     </row>
@@ -9560,7 +10835,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D22" s="1">
-        <f>-100*($D$2-D14)/$D$2</f>
+        <f t="shared" si="0"/>
         <v>-29.26829268292683</v>
       </c>
       <c r="E22" s="4"/>
@@ -9568,7 +10843,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H22" s="1">
-        <f>100*(H14-$H$2)/$H$2</f>
+        <f t="shared" si="1"/>
         <v>24.390243902439025</v>
       </c>
     </row>
@@ -9708,11 +10983,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296538C7-57E6-4435-A13D-7B95201EC5EC}">
+  <dimension ref="A1:Q126"/>
+  <sheetViews>
+    <sheetView zoomScale="65" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1">
+        <v>20815</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18900</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>18500</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16500</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1">
+        <f>$G$2/(2*C5)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>-(($C$2-D5)/$C$2)*100</f>
+        <v>-9.2000960845544064</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C18" si="0">$G$2/(2*C6)</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <f>-(($C$2-D6)/$C$2)*100</f>
+        <v>-11.121787172711986</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <f>-(($C$2-D7)/$C$2)*100</f>
+        <v>-20.730242613499879</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <f>-(($C$2-D8)/$C$2)*100</f>
+        <v>-27.936584194090802</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f>-(($C$2-D9)/$C$2)*100</f>
+        <v>-42.349267355272637</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <f>-(($C$2-D10)/$C$2)*100</f>
+        <v>-51.957722796060537</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M106" s="1">
+        <f>0.0003</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="1">
+        <v>60</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="1">
+        <v>80</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="1">
+        <v>90</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A126" s="7"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L105:M105"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59D8BB2-B93E-4B70-AAB2-ADC17DBE2205}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Datasheet/Relevé de mesures.xlsx
+++ b/Datasheet/Relevé de mesures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninaa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69A63C6-BE47-4492-B9B9-13F63C98C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB827E0-7D5E-442E-8BF2-50F9DA634118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{469ED7B0-B856-214C-BF6A-9CF3B438AC5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{469ED7B0-B856-214C-BF6A-9CF3B438AC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="HB" sheetId="1" r:id="rId1"/>
@@ -3246,6 +3246,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3331,6 +3332,8 @@
         <c:axId val="905170096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.7500000000000007E-2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10482,8 +10485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595893D0-26BF-4DCE-B60A-45A76DAF2691}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11167,7 +11170,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <f>-(($C$2-D5)/$C$2)*100</f>
+        <f t="shared" ref="D13:D18" si="0">-(($C$2-D5)/$C$2)*100</f>
         <v>-9.2000960845544064</v>
       </c>
       <c r="H13" s="4"/>
@@ -11176,11 +11179,11 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:C18" si="0">$G$2/(2*C6)</f>
+        <f t="shared" ref="C14:C18" si="1">$G$2/(2*C6)</f>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="D14" s="1">
-        <f>-(($C$2-D6)/$C$2)*100</f>
+        <f t="shared" si="0"/>
         <v>-11.121787172711986</v>
       </c>
       <c r="F14" s="4"/>
@@ -11191,11 +11194,11 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="D15" s="1">
-        <f>-(($C$2-D7)/$C$2)*100</f>
         <v>-20.730242613499879</v>
       </c>
       <c r="N15" s="4"/>
@@ -11204,11 +11207,11 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="D16" s="1">
-        <f>-(($C$2-D8)/$C$2)*100</f>
         <v>-27.936584194090802</v>
       </c>
       <c r="N16" s="4"/>
@@ -11217,11 +11220,11 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <f>-(($C$2-D9)/$C$2)*100</f>
         <v>-42.349267355272637</v>
       </c>
       <c r="E17" s="4"/>
@@ -11231,11 +11234,11 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <f>-(($C$2-D10)/$C$2)*100</f>
         <v>-51.957722796060537</v>
       </c>
       <c r="E18" s="4"/>
@@ -12380,7 +12383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59D8BB2-B93E-4B70-AAB2-ADC17DBE2205}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
